--- a/internal/tg/File/MatLab/2/LBD.xlsx
+++ b/internal/tg/File/MatLab/2/LBD.xlsx
@@ -319,37 +319,502 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.0029994300000000034</v>
+        <v>0.03646998758594219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.00000000000000000011081008980289652</v>
+        <v>0.0010124440731097625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0000000000000000000000000000000000000000000000000006731185040699814</v>
+        <v>0.000050725511115281175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.0000000000000000000000000000000000000000000000000006731185040699814</v>
+        <v>0.000004775082463906008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.00000000000000000000000000000000001805559322863031</v>
+        <v>0.0000019968040091085885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.00000000000000000003351656946079854</v>
+        <v>0.0000013387388592648276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.00000000000000000029413395483919903</v>
+        <v>0.000001063164497515759</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.0000009006783650005968</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.0000004993478565605496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.0000003059814457211281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.00000023358125493765946</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.00000012537261791139436</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.00000006289485779334403</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.00000006005100923383789</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.000000031489863587487056</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.000000027976897378448703</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.000000026178617309542204</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.00000002234239479524086</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.000000020463654331212745</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.000000015679371103290202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.000000015623150989079984</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.000000012619120522195485</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.00000001219606278202301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.000000011505600287784884</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.00000001077546395146975</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.000000008022232410850408</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.0000000047307209500529196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.000000004048286905124131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.0000000027111019445264843</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.0000000014490387898899024</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.0000000014190337746897553</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.0000000012457327590250447</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.0000000010545901364510384</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.0000000010330687454048471</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.0000000009506978823255365</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.0000000007017164744254145</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.0000000007016490395691457</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.0000000006519961564457638</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.0000000005173338187326543</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.0000000005169477589898072</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.0000000004546114267562157</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.000000000423978093439364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.0000000004221450453868308</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.0000000003992981527949376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.00000000035833448907302696</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.00000000035829266719308146</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.0000000003454150309516054</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.00000000034444654349055896</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.00000000027661942549949926</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.00000000025011372735325024</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.000000000246157442407031</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.0000000002394148454627103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.00000000023431662094734133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.00000000022448946905798788</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.00000000022369416686824793</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.0000000001984906579031899</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.0000000001890898546984749</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.00000000017812122587291352</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.00000000017739220064088258</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.00000000017083985005337383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.00000000016979914054481356</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.00000000016449996413682716</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.00000000015226245429183556</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.00000000015100747471400442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.0000000001360295044297874</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.0000000001360041803720987</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.00000000013015787845600812</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.00000000012849262222581174</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.00000000010727098519940691</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.00000000010718028817147614</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.00000000009306598135410018</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.00000000008534729097467993</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.00000000007248590288812796</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.00000000006775293143463602</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.0000000000629011217326392</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.00000000006263289897541352</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.00000000005935750240896194</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.00000000005130366586560443</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.00000000004841710969449362</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.00000000004773936740048141</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.000000000037455107629767845</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.00000000003327139204104307</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.00000000003209404015402711</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.000000000018985011917604093</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.000000000017859387232791642</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.000000000017577705937009815</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.000000000016498278341371586</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.00000000001607265676765848</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.000000000009086863358970683</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.000000000008681243621716071</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.0000000000072298744253049945</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.0000000000070701114566852415</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.000000000005329817648098402</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.000000000005288255381091082</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.000000000004882926245640482</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.000000000004388513404264543</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.000000000001823045290961668</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.000000000001689581649880623</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.0000000000007617207338229171</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.0000000000007093602160144254</v>
       </c>
     </row>
   </sheetData>
